--- a/EmiMollova/Product Test/OnlineShop001-Sort by price.xlsx
+++ b/EmiMollova/Product Test/OnlineShop001-Sort by price.xlsx
@@ -67,9 +67,6 @@
     <t>Verify if the option "Sort by price: lowest first" works properlyin main section "Women"</t>
   </si>
   <si>
-    <t>User is at Homepage</t>
-  </si>
-  <si>
     <t xml:space="preserve">  _</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Emi Mollova</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com   User is at Homepage</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,18 +652,18 @@
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
